--- a/spliced/walkingToRunning/2023-04-03_17-00-11/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_17-00-11/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.181402321943324</v>
+        <v>-4.399603349646254</v>
       </c>
       <c r="B2" t="n">
-        <v>-13.55545660392537</v>
+        <v>-32.20032115818277</v>
       </c>
       <c r="C2" t="n">
-        <v>3.205564154791972</v>
+        <v>-1.038676389713888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.664523610134713</v>
+        <v>2.827775232570724</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.350481726459617</v>
+        <v>-30.86045528687148</v>
       </c>
       <c r="C3" t="n">
-        <v>4.292131388310294</v>
+        <v>2.059290839839234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13.44853089519381</v>
+        <v>9.072769558306828</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.059543707936083</v>
+        <v>-14.51345410297827</v>
       </c>
       <c r="C4" t="n">
-        <v>3.958563812000231</v>
+        <v>10.26892458532274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22.60065357955459</v>
+        <v>1.526257913137283</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7869508549110522</v>
+        <v>-15.38509752332542</v>
       </c>
       <c r="C5" t="n">
-        <v>5.567218827218129</v>
+        <v>-1.262450129715198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20.81180861561567</v>
+        <v>6.41234910119443</v>
       </c>
       <c r="B6" t="n">
-        <v>4.192459489881387</v>
+        <v>-10.75634378256254</v>
       </c>
       <c r="C6" t="n">
-        <v>5.852121943051054</v>
+        <v>-6.548929008011939</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.248951935276555</v>
+        <v>32.94686977150512</v>
       </c>
       <c r="B7" t="n">
-        <v>-6.419107528076937</v>
+        <v>-15.4527910517663</v>
       </c>
       <c r="C7" t="n">
-        <v>1.739659212299236</v>
+        <v>-8.939652902563815</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.399603349646254</v>
+        <v>53.20190917339517</v>
       </c>
       <c r="B8" t="n">
-        <v>-32.20032115818277</v>
+        <v>-41.65597895986004</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.038676389713888</v>
+        <v>-19.47473356895838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.827775232570724</v>
+        <v>26.88092610516489</v>
       </c>
       <c r="B9" t="n">
-        <v>-30.86045528687148</v>
+        <v>-29.92789514040201</v>
       </c>
       <c r="C9" t="n">
-        <v>2.059290839839234</v>
+        <v>-3.621464901363669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.072769558306828</v>
+        <v>-14.28073297579263</v>
       </c>
       <c r="B10" t="n">
-        <v>-14.51345410297827</v>
+        <v>-29.62231750586597</v>
       </c>
       <c r="C10" t="n">
-        <v>10.26892458532274</v>
+        <v>40.7812210653246</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.526257913137283</v>
+        <v>29.81173590040617</v>
       </c>
       <c r="B11" t="n">
-        <v>-15.38509752332542</v>
+        <v>-15.35024061891273</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.262450129715198</v>
+        <v>27.41680280449521</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.41234910119443</v>
+        <v>38.08487456606819</v>
       </c>
       <c r="B12" t="n">
-        <v>-10.75634378256254</v>
+        <v>8.25389982253002</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.548929008011939</v>
+        <v>-6.631011874405364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>32.94686977150512</v>
+        <v>15.41566228866577</v>
       </c>
       <c r="B13" t="n">
-        <v>-15.4527910517663</v>
+        <v>-42.39830100536346</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.939652902563815</v>
+        <v>41.37434816360474</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>53.20190917339517</v>
+        <v>32.54000410099627</v>
       </c>
       <c r="B14" t="n">
-        <v>-41.65597895986004</v>
+        <v>-39.22240943515485</v>
       </c>
       <c r="C14" t="n">
-        <v>-19.47473356895838</v>
+        <v>45.66644129802327</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>26.88092610516489</v>
+        <v>24.84834649390785</v>
       </c>
       <c r="B15" t="n">
-        <v>-29.92789514040201</v>
+        <v>-8.03618379229086</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.621464901363669</v>
+        <v>24.45961570739691</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-14.28073297579263</v>
+        <v>-12.76972269274368</v>
       </c>
       <c r="B16" t="n">
-        <v>-29.62231750586597</v>
+        <v>-22.28177534673628</v>
       </c>
       <c r="C16" t="n">
-        <v>40.7812210653246</v>
+        <v>15.843390720408</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>29.81173590040617</v>
+        <v>-17.05221034571044</v>
       </c>
       <c r="B17" t="n">
-        <v>-15.35024061891273</v>
+        <v>-9.689534740349583</v>
       </c>
       <c r="C17" t="n">
-        <v>27.41680280449521</v>
+        <v>-7.262813420639774</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>38.08487456606819</v>
+        <v>7.601734495654355</v>
       </c>
       <c r="B18" t="n">
-        <v>8.25389982253002</v>
+        <v>-7.369463099647012</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.631011874405364</v>
+        <v>0.05982191538072679</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15.41566228866577</v>
+        <v>-5.084137159524504</v>
       </c>
       <c r="B19" t="n">
-        <v>-42.39830100536346</v>
+        <v>-17.42479633056011</v>
       </c>
       <c r="C19" t="n">
-        <v>41.37434816360474</v>
+        <v>13.42315847357525</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>32.54000410099627</v>
+        <v>-2.988111949458581</v>
       </c>
       <c r="B20" t="n">
-        <v>-39.22240943515485</v>
+        <v>-1.541268535496201</v>
       </c>
       <c r="C20" t="n">
-        <v>45.66644129802327</v>
+        <v>24.50189582588753</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>24.84834649390785</v>
+        <v>16.88818173740272</v>
       </c>
       <c r="B21" t="n">
-        <v>-8.03618379229086</v>
+        <v>-21.43393101642941</v>
       </c>
       <c r="C21" t="n">
-        <v>24.45961570739691</v>
+        <v>26.25781544950798</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11.71483505878375</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-29.24488582807863</v>
+      </c>
+      <c r="C22" t="n">
+        <v>14.33557478914648</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-17.89474326064904</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.058929585918881</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-6.072563363104724</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-6.588068613071894</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-42.04801777711909</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27.395873059932</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4.73087814911125</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-46.72824330182412</v>
+      </c>
+      <c r="C25" t="n">
+        <v>40.59463504909236</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>13.50610577691452</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-5.020019875359202</v>
+      </c>
+      <c r="C26" t="n">
+        <v>23.69000314928804</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-13.47701175925547</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-14.91354519067346</v>
+      </c>
+      <c r="C27" t="n">
+        <v>16.03211706692484</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-16.10707013631821</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-7.06407377891983</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-12.22038123533914</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>17.60490359473454</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-9.783274660405542</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.873167308335432</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-13.56971339589527</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-42.06590333918953</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.837090728209249</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.4818755535735217</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-32.3410521585916</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.205087691238255</v>
       </c>
     </row>
   </sheetData>
